--- a/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>417440</v>
+        <v>422296</v>
       </c>
       <c r="D2" t="n">
-        <v>593871671</v>
+        <v>609351049</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D3" t="n">
-        <v>435130</v>
+        <v>454588</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D4" t="n">
-        <v>853162</v>
+        <v>867191</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>34500</v>
+        <v>44500</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1251</v>
+        <v>1280</v>
       </c>
       <c r="D9" t="n">
-        <v>2711516</v>
+        <v>2874303</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>158889</v>
+        <v>162330</v>
       </c>
       <c r="D11" t="n">
-        <v>339664915</v>
+        <v>362622615</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D12" t="n">
-        <v>708535</v>
+        <v>839201</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>83223</v>
+        <v>84917</v>
       </c>
       <c r="D13" t="n">
-        <v>172829135</v>
+        <v>183160739</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" t="n">
-        <v>115856</v>
+        <v>128799</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4496</v>
+        <v>4540</v>
       </c>
       <c r="D17" t="n">
-        <v>7037200</v>
+        <v>7194334</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10561</v>
+        <v>10701</v>
       </c>
       <c r="D22" t="n">
-        <v>18702426</v>
+        <v>19340775</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>17706</v>
+        <v>27912</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>99543</v>
+        <v>100774</v>
       </c>
       <c r="D24" t="n">
-        <v>138633550</v>
+        <v>142699084</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" t="n">
-        <v>100904</v>
+        <v>108572</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>16527</v>
+        <v>22205</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>44000</v>
+        <v>64000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D29" t="n">
-        <v>835410</v>
+        <v>930747</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>43294</v>
+        <v>44275</v>
       </c>
       <c r="D30" t="n">
-        <v>89679660</v>
+        <v>96227521</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D31" t="n">
-        <v>136920</v>
+        <v>149053</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>38166</v>
+        <v>48166</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15641</v>
+        <v>15935</v>
       </c>
       <c r="D33" t="n">
-        <v>31655384</v>
+        <v>33538235</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1793</v>
+        <v>1811</v>
       </c>
       <c r="D36" t="n">
-        <v>2871455</v>
+        <v>2958160</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>33426</v>
+        <v>43168</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2726</v>
+        <v>2763</v>
       </c>
       <c r="D38" t="n">
-        <v>4585792</v>
+        <v>4748430</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>122910</v>
+        <v>124634</v>
       </c>
       <c r="D39" t="n">
-        <v>173380493</v>
+        <v>179386458</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D41" t="n">
-        <v>216482</v>
+        <v>262024</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1343</v>
+        <v>1410</v>
       </c>
       <c r="D45" t="n">
-        <v>2954392</v>
+        <v>3401875</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>60520</v>
+        <v>62301</v>
       </c>
       <c r="D47" t="n">
-        <v>129768013</v>
+        <v>141710877</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" t="n">
-        <v>110328</v>
+        <v>120994</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12767</v>
+        <v>13078</v>
       </c>
       <c r="D49" t="n">
-        <v>26611555</v>
+        <v>28533910</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1602</v>
+        <v>1616</v>
       </c>
       <c r="D51" t="n">
-        <v>2434825</v>
+        <v>2516629</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3476</v>
+        <v>3531</v>
       </c>
       <c r="D54" t="n">
-        <v>5931805</v>
+        <v>6245889</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>88595</v>
+        <v>89686</v>
       </c>
       <c r="D55" t="n">
-        <v>126164117</v>
+        <v>129754347</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D57" t="n">
-        <v>110530</v>
+        <v>117695</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="D61" t="n">
-        <v>1159335</v>
+        <v>1318149</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>37861</v>
+        <v>38605</v>
       </c>
       <c r="D63" t="n">
-        <v>78626105</v>
+        <v>83540236</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D64" t="n">
-        <v>177114</v>
+        <v>198614</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>18166</v>
+        <v>18832</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15207</v>
+        <v>15439</v>
       </c>
       <c r="D66" t="n">
-        <v>30655509</v>
+        <v>32026805</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="D68" t="n">
-        <v>2550702</v>
+        <v>2603575</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2239</v>
+        <v>2272</v>
       </c>
       <c r="D72" t="n">
-        <v>3854887</v>
+        <v>4016021</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>26403</v>
+        <v>26681</v>
       </c>
       <c r="D74" t="n">
-        <v>38506590</v>
+        <v>39561216</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
-        <v>62710</v>
+        <v>65529</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>10471</v>
+        <v>10722</v>
       </c>
       <c r="D78" t="n">
-        <v>22936287</v>
+        <v>24750590</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>22860</v>
+        <v>29720</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7200</v>
+        <v>7341</v>
       </c>
       <c r="D80" t="n">
-        <v>15224388</v>
+        <v>16012947</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="D81" t="n">
-        <v>1021569</v>
+        <v>1069270</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D82" t="n">
-        <v>786792</v>
+        <v>795332</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>180893</v>
+        <v>183286</v>
       </c>
       <c r="D83" t="n">
-        <v>254195161</v>
+        <v>262027892</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D84" t="n">
-        <v>211074</v>
+        <v>224022</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D85" t="n">
-        <v>239115</v>
+        <v>277808</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="D87" t="n">
-        <v>1449688</v>
+        <v>1550190</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>30687</v>
+        <v>32187</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>84405</v>
+        <v>86477</v>
       </c>
       <c r="D89" t="n">
-        <v>173584655</v>
+        <v>186876957</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D90" t="n">
-        <v>414805</v>
+        <v>429596</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>50586</v>
+        <v>60586</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>39940</v>
+        <v>40812</v>
       </c>
       <c r="D92" t="n">
-        <v>79970124</v>
+        <v>85327618</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
-        <v>28603</v>
+        <v>29962</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4019</v>
+        <v>4209</v>
       </c>
       <c r="D94" t="n">
-        <v>10695321</v>
+        <v>11975261</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4191</v>
+        <v>4243</v>
       </c>
       <c r="D96" t="n">
-        <v>7181482</v>
+        <v>7435939</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>42432</v>
+        <v>42744</v>
       </c>
       <c r="D97" t="n">
-        <v>61052014</v>
+        <v>61688212</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10494</v>
+        <v>10550</v>
       </c>
       <c r="D101" t="n">
-        <v>17460141</v>
+        <v>17712180</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9780</v>
+        <v>9829</v>
       </c>
       <c r="D103" t="n">
-        <v>15664549</v>
+        <v>15826202</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D105" t="n">
-        <v>955712</v>
+        <v>960752</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D106" t="n">
-        <v>1018270</v>
+        <v>1044094</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>17974</v>
+        <v>18031</v>
       </c>
       <c r="D107" t="n">
-        <v>36307350</v>
+        <v>36542404</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4086</v>
+        <v>4094</v>
       </c>
       <c r="D110" t="n">
-        <v>8767747</v>
+        <v>8788247</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5888</v>
+        <v>5910</v>
       </c>
       <c r="D112" t="n">
-        <v>13042093</v>
+        <v>13181374</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D115" t="n">
-        <v>737625</v>
+        <v>747625</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>184365</v>
+        <v>186635</v>
       </c>
       <c r="D117" t="n">
-        <v>258123588</v>
+        <v>265370732</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D119" t="n">
-        <v>161662</v>
+        <v>173162</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1399</v>
+        <v>1438</v>
       </c>
       <c r="D121" t="n">
-        <v>3175351</v>
+        <v>3415893</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>71399</v>
+        <v>72937</v>
       </c>
       <c r="D123" t="n">
-        <v>150011856</v>
+        <v>160076755</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D124" t="n">
-        <v>478734</v>
+        <v>538124</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>38333</v>
+        <v>39016</v>
       </c>
       <c r="D126" t="n">
-        <v>78216349</v>
+        <v>82348800</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D127" t="n">
-        <v>6926</v>
+        <v>10852</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1540</v>
+        <v>1556</v>
       </c>
       <c r="D128" t="n">
-        <v>2615173</v>
+        <v>2717252</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3532</v>
+        <v>3594</v>
       </c>
       <c r="D132" t="n">
-        <v>6338156</v>
+        <v>6604717</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>751121</v>
+        <v>758347</v>
       </c>
       <c r="D134" t="n">
-        <v>1161360696</v>
+        <v>1182731541</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D135" t="n">
-        <v>230222</v>
+        <v>257054</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D136" t="n">
-        <v>678922</v>
+        <v>718907</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D138" t="n">
-        <v>51777</v>
+        <v>52390</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2328</v>
+        <v>2410</v>
       </c>
       <c r="D139" t="n">
-        <v>6420761</v>
+        <v>6997806</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D140" t="n">
-        <v>208679</v>
+        <v>218679</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>295584</v>
+        <v>300880</v>
       </c>
       <c r="D141" t="n">
-        <v>627923523</v>
+        <v>662697306</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>880</v>
+        <v>918</v>
       </c>
       <c r="D142" t="n">
-        <v>3215252</v>
+        <v>3494238</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D143" t="n">
-        <v>227961</v>
+        <v>246944</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>278026</v>
+        <v>282095</v>
       </c>
       <c r="D144" t="n">
-        <v>571249835</v>
+        <v>595364789</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D146" t="n">
-        <v>166714</v>
+        <v>168777</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3420</v>
+        <v>3443</v>
       </c>
       <c r="D147" t="n">
-        <v>5497910</v>
+        <v>5586131</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>10678</v>
+        <v>10847</v>
       </c>
       <c r="D150" t="n">
-        <v>19654459</v>
+        <v>20519430</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>53337</v>
+        <v>53505</v>
       </c>
       <c r="D153" t="n">
-        <v>73353609</v>
+        <v>73682133</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>16200</v>
+        <v>16252</v>
       </c>
       <c r="D159" t="n">
-        <v>25492397</v>
+        <v>25727579</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D160" t="n">
-        <v>51823</v>
+        <v>61823</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>4457</v>
+        <v>4471</v>
       </c>
       <c r="D161" t="n">
-        <v>6854690</v>
+        <v>6912249</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6576,10 +6576,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D164" t="n">
-        <v>654468</v>
+        <v>657468</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6652,10 +6652,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D166" t="n">
-        <v>851181</v>
+        <v>854664</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>22968</v>
+        <v>23231</v>
       </c>
       <c r="D167" t="n">
-        <v>33412839</v>
+        <v>34136920</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6804,10 +6804,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D170" t="n">
-        <v>91124</v>
+        <v>99842</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>9695</v>
+        <v>9830</v>
       </c>
       <c r="D171" t="n">
-        <v>18020820</v>
+        <v>18804055</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6897</v>
+        <v>6975</v>
       </c>
       <c r="D173" t="n">
-        <v>12300989</v>
+        <v>12731635</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D175" t="n">
-        <v>481509</v>
+        <v>486517</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7032,10 +7032,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D176" t="n">
-        <v>691978</v>
+        <v>707478</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>31853</v>
+        <v>32005</v>
       </c>
       <c r="D178" t="n">
-        <v>73645099</v>
+        <v>74550325</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3169</v>
+        <v>3185</v>
       </c>
       <c r="D180" t="n">
-        <v>7232063</v>
+        <v>7341293</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7222,10 +7222,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D181" t="n">
-        <v>948179</v>
+        <v>949679</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7336,10 +7336,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D184" t="n">
-        <v>458264</v>
+        <v>461255</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>113185</v>
+        <v>114613</v>
       </c>
       <c r="D185" t="n">
-        <v>160881505</v>
+        <v>165755099</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7526,10 +7526,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>27389</v>
+        <v>28889</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7602,10 +7602,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>958</v>
+        <v>1018</v>
       </c>
       <c r="D191" t="n">
-        <v>2262799</v>
+        <v>2679301</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>46357</v>
+        <v>47405</v>
       </c>
       <c r="D193" t="n">
-        <v>99770886</v>
+        <v>107021919</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7716,10 +7716,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D194" t="n">
-        <v>124187</v>
+        <v>144575</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>18318</v>
+        <v>18666</v>
       </c>
       <c r="D195" t="n">
-        <v>38105505</v>
+        <v>40415595</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D196" t="n">
-        <v>18514</v>
+        <v>21706</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7830,10 +7830,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1444</v>
+        <v>1456</v>
       </c>
       <c r="D197" t="n">
-        <v>2255343</v>
+        <v>2311537</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2483</v>
+        <v>2524</v>
       </c>
       <c r="D199" t="n">
-        <v>4328693</v>
+        <v>4515004</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7982,10 +7982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>301735</v>
+        <v>305181</v>
       </c>
       <c r="D201" t="n">
-        <v>417387353</v>
+        <v>427928432</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8020,10 +8020,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D202" t="n">
-        <v>211833</v>
+        <v>232449</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8058,10 +8058,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D203" t="n">
-        <v>407167</v>
+        <v>427089</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8096,10 +8096,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="n">
-        <v>11413</v>
+        <v>12913</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8210,10 +8210,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1237</v>
+        <v>1275</v>
       </c>
       <c r="D207" t="n">
-        <v>2535367</v>
+        <v>2756717</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8286,10 +8286,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>115293</v>
+        <v>117983</v>
       </c>
       <c r="D209" t="n">
-        <v>238352049</v>
+        <v>256066589</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D210" t="n">
-        <v>386284</v>
+        <v>431684</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>45280</v>
+        <v>46214</v>
       </c>
       <c r="D212" t="n">
-        <v>91363833</v>
+        <v>97067371</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>6041</v>
+        <v>6107</v>
       </c>
       <c r="D215" t="n">
-        <v>10061493</v>
+        <v>10416067</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8628,10 +8628,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>7343</v>
+        <v>7457</v>
       </c>
       <c r="D218" t="n">
-        <v>12310666</v>
+        <v>12774223</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>340801</v>
+        <v>344631</v>
       </c>
       <c r="D221" t="n">
-        <v>465963478</v>
+        <v>476755916</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8818,10 +8818,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D223" t="n">
-        <v>566267</v>
+        <v>595916</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="D228" t="n">
-        <v>1936048</v>
+        <v>2169177</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9084,10 +9084,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>127823</v>
+        <v>130444</v>
       </c>
       <c r="D230" t="n">
-        <v>264959341</v>
+        <v>281711108</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D231" t="n">
-        <v>459220</v>
+        <v>520665</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9198,10 +9198,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>70922</v>
+        <v>72351</v>
       </c>
       <c r="D233" t="n">
-        <v>143907708</v>
+        <v>152371501</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D234" t="n">
-        <v>121484</v>
+        <v>131484</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9312,10 +9312,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>5460</v>
+        <v>5511</v>
       </c>
       <c r="D236" t="n">
-        <v>8521106</v>
+        <v>8757686</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D239" t="n">
-        <v>75978</v>
+        <v>85978</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9464,10 +9464,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>9274</v>
+        <v>9422</v>
       </c>
       <c r="D240" t="n">
-        <v>15828029</v>
+        <v>16430553</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9578,10 +9578,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>136020</v>
+        <v>137607</v>
       </c>
       <c r="D243" t="n">
-        <v>192240349</v>
+        <v>197812984</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9730,10 +9730,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D247" t="n">
-        <v>9980</v>
+        <v>16305</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>822</v>
+        <v>852</v>
       </c>
       <c r="D248" t="n">
-        <v>1782296</v>
+        <v>1982975</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>66763</v>
+        <v>68413</v>
       </c>
       <c r="D250" t="n">
-        <v>140927411</v>
+        <v>151595197</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9882,10 +9882,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D251" t="n">
-        <v>126377</v>
+        <v>146377</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>21332</v>
+        <v>41332</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9958,10 +9958,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>17519</v>
+        <v>17909</v>
       </c>
       <c r="D253" t="n">
-        <v>35740006</v>
+        <v>38227021</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10034,10 +10034,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2145</v>
+        <v>2168</v>
       </c>
       <c r="D255" t="n">
-        <v>3446064</v>
+        <v>3547152</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10110,10 +10110,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3654</v>
+        <v>3698</v>
       </c>
       <c r="D257" t="n">
-        <v>6132614</v>
+        <v>6341353</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10148,10 +10148,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>340796</v>
+        <v>344613</v>
       </c>
       <c r="D258" t="n">
-        <v>481219475</v>
+        <v>491970595</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D259" t="n">
-        <v>342097</v>
+        <v>347631</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D260" t="n">
-        <v>587938</v>
+        <v>625701</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1346</v>
+        <v>1394</v>
       </c>
       <c r="D265" t="n">
-        <v>3444391</v>
+        <v>3760096</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10452,10 +10452,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D266" t="n">
-        <v>54498</v>
+        <v>74498</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10490,10 +10490,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>133138</v>
+        <v>135959</v>
       </c>
       <c r="D267" t="n">
-        <v>287288058</v>
+        <v>305736439</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10528,10 +10528,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D268" t="n">
-        <v>492156</v>
+        <v>543656</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D269" t="n">
-        <v>58339</v>
+        <v>68339</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>94513</v>
+        <v>96298</v>
       </c>
       <c r="D270" t="n">
-        <v>199209080</v>
+        <v>210063960</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10680,10 +10680,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>2925</v>
+        <v>2965</v>
       </c>
       <c r="D272" t="n">
-        <v>4726493</v>
+        <v>4903996</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10794,10 +10794,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7579</v>
+        <v>7716</v>
       </c>
       <c r="D275" t="n">
-        <v>13651618</v>
+        <v>14285809</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
